--- a/src/Presentation/Virgol.School/BulkUserData/Teachers.xlsx
+++ b/src/Presentation/Virgol.School/BulkUserData/Teachers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\VSCode\LMS Moodle\Sample Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamid/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB77F97-FFEE-4628-8E2F-687D89ABC906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A14519-ACD1-E643-808F-2C2345534CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,19 +425,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="186" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -460,7 +460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -468,7 +468,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>1061272280</v>
+        <v>1061272270</v>
       </c>
       <c r="D2">
         <v>9163529743</v>
@@ -480,7 +480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -488,7 +488,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>1061272281</v>
+        <v>1061272282</v>
       </c>
       <c r="D3">
         <v>9163784956</v>
@@ -500,7 +500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -508,7 +508,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>1061272282</v>
+        <v>1061272289</v>
       </c>
       <c r="D4">
         <v>9167294786</v>
@@ -520,7 +520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -528,7 +528,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>1061272285</v>
+        <v>1061272286</v>
       </c>
       <c r="D5">
         <v>9167294886</v>
@@ -540,7 +540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>1061272286</v>
+        <v>1061272287</v>
       </c>
       <c r="D6">
         <v>9177294886</v>

--- a/src/Presentation/Virgol.School/BulkUserData/Teachers.xlsx
+++ b/src/Presentation/Virgol.School/BulkUserData/Teachers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamid/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\VSCode\LMS Moodle\Sample Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A14519-ACD1-E643-808F-2C2345534CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB77F97-FFEE-4628-8E2F-687D89ABC906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,19 +425,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="186" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -460,7 +460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -468,7 +468,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>1061272270</v>
+        <v>1061272280</v>
       </c>
       <c r="D2">
         <v>9163529743</v>
@@ -480,7 +480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -488,7 +488,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>1061272282</v>
+        <v>1061272281</v>
       </c>
       <c r="D3">
         <v>9163784956</v>
@@ -500,7 +500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -508,7 +508,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>1061272289</v>
+        <v>1061272282</v>
       </c>
       <c r="D4">
         <v>9167294786</v>
@@ -520,7 +520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -528,7 +528,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>1061272286</v>
+        <v>1061272285</v>
       </c>
       <c r="D5">
         <v>9167294886</v>
@@ -540,7 +540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>1061272287</v>
+        <v>1061272286</v>
       </c>
       <c r="D6">
         <v>9177294886</v>
